--- a/data/EurA1c_report_definitief.xlsx
+++ b/data/EurA1c_report_definitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coko2\Data Science\Proof Of Concept DS\EurA1c-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A242E0-2D8A-4C63-9950-B290A2905FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A641D08F-60AE-402B-91CD-0C14588F5E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9A0797B7-DC1C-426A-B3A6-72BD373E67C3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="448">
   <si>
     <t>(part of cobas 6000/8000) Roche Diagnostics cobas c 513</t>
   </si>
@@ -1376,6 +1376,9 @@
   </si>
   <si>
     <t>Method name</t>
+  </si>
+  <si>
+    <t>Total Error</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,6 +1406,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1443,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1460,6 +1478,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1774,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AC231E-5D5D-499E-AC22-04D7F694044A}">
-  <dimension ref="A1:K515"/>
+  <dimension ref="A1:L516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="G517" sqref="G517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1788,7 +1808,7 @@
     <col min="8" max="8" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>446</v>
       </c>
@@ -1822,8 +1842,11 @@
       <c r="K1" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,8 +1880,11 @@
       <c r="K2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,8 +1918,11 @@
       <c r="K3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1927,8 +1956,11 @@
       <c r="K4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="9">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1962,8 +1994,11 @@
       <c r="K5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="9">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1997,8 +2032,11 @@
       <c r="K6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2032,8 +2070,11 @@
       <c r="K7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2067,8 +2108,11 @@
       <c r="K8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="9">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2102,8 +2146,11 @@
       <c r="K9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2137,8 +2184,11 @@
       <c r="K10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2172,8 +2222,11 @@
       <c r="K11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2207,8 +2260,11 @@
       <c r="K12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2242,8 +2298,11 @@
       <c r="K13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="9">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2277,8 +2336,11 @@
       <c r="K14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2312,8 +2374,11 @@
       <c r="K15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2347,8 +2412,11 @@
       <c r="K16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -2382,8 +2450,11 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="9">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2417,8 +2488,11 @@
       <c r="K18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2452,8 +2526,11 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2487,8 +2564,11 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="9">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2522,8 +2602,11 @@
       <c r="K21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="9">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2557,8 +2640,11 @@
       <c r="K22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2592,8 +2678,11 @@
       <c r="K23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="9">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2627,8 +2716,11 @@
       <c r="K24" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -2662,8 +2754,11 @@
       <c r="K25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2697,8 +2792,11 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2732,8 +2830,11 @@
       <c r="K27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2868,11 @@
       <c r="K28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="9">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -2802,8 +2906,11 @@
       <c r="K29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="9">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +2944,11 @@
       <c r="K30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="9">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2982,11 @@
       <c r="K31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31" s="9">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3020,11 @@
       <c r="K32" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3058,11 @@
       <c r="K33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" s="9">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -2977,8 +3096,11 @@
       <c r="K34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3012,8 +3134,11 @@
       <c r="K35" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -3047,8 +3172,11 @@
       <c r="K36" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L36" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3082,8 +3210,11 @@
       <c r="K37" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L37" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3117,8 +3248,11 @@
       <c r="K38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -3152,8 +3286,11 @@
       <c r="K39" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -3187,8 +3324,11 @@
       <c r="K40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L40" s="9">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="K41" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L41" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -3257,8 +3400,11 @@
       <c r="K42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -3292,8 +3438,11 @@
       <c r="K43" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -3327,8 +3476,11 @@
       <c r="K44" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44" s="9">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -3362,8 +3514,11 @@
       <c r="K45" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -3397,8 +3552,11 @@
       <c r="K46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -3432,8 +3590,11 @@
       <c r="K47" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47" s="9">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -3467,8 +3628,11 @@
       <c r="K48" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -3502,8 +3666,11 @@
       <c r="K49" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3537,8 +3704,11 @@
       <c r="K50" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50" s="9">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -3572,8 +3742,11 @@
       <c r="K51" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3607,8 +3780,11 @@
       <c r="K52" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3642,8 +3818,11 @@
       <c r="K53" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L53" s="9">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -3677,8 +3856,11 @@
       <c r="K54" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L54" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3712,8 +3894,11 @@
       <c r="K55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L55" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -3747,8 +3932,11 @@
       <c r="K56" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L56" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -3782,8 +3970,11 @@
       <c r="K57" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L57" s="9">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -3817,8 +4008,11 @@
       <c r="K58" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L58" s="9">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -3852,8 +4046,11 @@
       <c r="K59" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L59" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -3887,8 +4084,11 @@
       <c r="K60" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L60" s="9">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -3922,8 +4122,11 @@
       <c r="K61" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L61" s="9">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -3957,8 +4160,11 @@
       <c r="K62" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L62" s="9">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -3992,8 +4198,11 @@
       <c r="K63" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L63" s="9">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -4027,8 +4236,11 @@
       <c r="K64" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L64" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4274,11 @@
       <c r="K65" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L65" s="9">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -4097,8 +4312,11 @@
       <c r="K66" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L66" s="9">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -4132,8 +4350,11 @@
       <c r="K67" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L67" s="9">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -4167,8 +4388,11 @@
       <c r="K68" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L68" s="9">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -4202,8 +4426,11 @@
       <c r="K69" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L69" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -4237,8 +4464,11 @@
       <c r="K70" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L70" s="9">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4502,11 @@
       <c r="K71" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L71" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -4307,8 +4540,11 @@
       <c r="K72" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L72" s="9">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
@@ -4342,8 +4578,11 @@
       <c r="K73" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L73" s="9">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -4377,8 +4616,11 @@
       <c r="K74" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L74" s="9">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -4412,8 +4654,11 @@
       <c r="K75" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L75" s="9">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>60</v>
       </c>
@@ -4447,8 +4692,11 @@
       <c r="K76" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L76" s="9">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>60</v>
       </c>
@@ -4482,8 +4730,11 @@
       <c r="K77" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L77" s="9">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -4517,8 +4768,11 @@
       <c r="K78" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L78" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>60</v>
       </c>
@@ -4552,8 +4806,11 @@
       <c r="K79" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L79" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -4587,8 +4844,11 @@
       <c r="K80" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L80" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
@@ -4622,8 +4882,11 @@
       <c r="K81" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L81" s="9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
@@ -4657,8 +4920,11 @@
       <c r="K82" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L82" s="9">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
@@ -4692,8 +4958,11 @@
       <c r="K83" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L83" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>77</v>
       </c>
@@ -4727,8 +4996,11 @@
       <c r="K84" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L84" s="9">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>77</v>
       </c>
@@ -4762,8 +5034,11 @@
       <c r="K85" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L85" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
@@ -4797,8 +5072,11 @@
       <c r="K86" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L86" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
@@ -4832,8 +5110,11 @@
       <c r="K87" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L87" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4867,8 +5148,11 @@
       <c r="K88" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L88" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>77</v>
       </c>
@@ -4902,8 +5186,11 @@
       <c r="K89" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L89" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -4937,8 +5224,11 @@
       <c r="K90" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L90" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -4972,8 +5262,11 @@
       <c r="K91" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L91" s="9">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -5007,8 +5300,11 @@
       <c r="K92" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L92" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -5042,8 +5338,11 @@
       <c r="K93" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L93" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
@@ -5077,8 +5376,11 @@
       <c r="K94" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L94" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -5112,8 +5414,11 @@
       <c r="K95" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L95" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -5147,8 +5452,11 @@
       <c r="K96" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L96" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
@@ -5182,8 +5490,11 @@
       <c r="K97" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L97" s="9">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -5217,8 +5528,11 @@
       <c r="K98" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L98" s="9">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -5252,8 +5566,11 @@
       <c r="K99" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L99" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -5287,8 +5604,11 @@
       <c r="K100" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L100" s="9">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -5322,8 +5642,11 @@
       <c r="K101" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L101" s="9">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -5357,8 +5680,11 @@
       <c r="K102" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L102" s="9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -5392,8 +5718,11 @@
       <c r="K103" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L103" s="9">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -5427,8 +5756,11 @@
       <c r="K104" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L104" s="9">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -5462,8 +5794,11 @@
       <c r="K105" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L105" s="9">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -5497,8 +5832,11 @@
       <c r="K106" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L106" s="9">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -5532,8 +5870,11 @@
       <c r="K107" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L107" s="9">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -5567,8 +5908,11 @@
       <c r="K108" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L108" s="9">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
@@ -5602,8 +5946,11 @@
       <c r="K109" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L109" s="9">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -5637,8 +5984,11 @@
       <c r="K110" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L110" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -5672,8 +6022,11 @@
       <c r="K111" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L111" s="9">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -5707,8 +6060,11 @@
       <c r="K112" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L112" s="9">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -5742,8 +6098,11 @@
       <c r="K113" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L113" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -5777,8 +6136,11 @@
       <c r="K114" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L114" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -5812,8 +6174,11 @@
       <c r="K115" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L115" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -5847,8 +6212,11 @@
       <c r="K116" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L116" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -5882,8 +6250,11 @@
       <c r="K117" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L117" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -5917,8 +6288,11 @@
       <c r="K118" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L118" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -5952,8 +6326,11 @@
       <c r="K119" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L119" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -5987,8 +6364,11 @@
       <c r="K120" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L120" s="9">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -6022,8 +6402,11 @@
       <c r="K121" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L121" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
@@ -6057,8 +6440,11 @@
       <c r="K122" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L122" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
@@ -6092,8 +6478,11 @@
       <c r="K123" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L123" s="9">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
@@ -6127,8 +6516,11 @@
       <c r="K124" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L124" s="9">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
@@ -6162,8 +6554,11 @@
       <c r="K125" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L125" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
@@ -6197,8 +6592,11 @@
       <c r="K126" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L126" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>7</v>
       </c>
@@ -6232,8 +6630,11 @@
       <c r="K127" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L127" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
@@ -6267,8 +6668,11 @@
       <c r="K128" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L128" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
@@ -6302,8 +6706,11 @@
       <c r="K129" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L129" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -6337,8 +6744,11 @@
       <c r="K130" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L130" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
@@ -6372,8 +6782,11 @@
       <c r="K131" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L131" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -6407,8 +6820,11 @@
       <c r="K132" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L132" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
@@ -6442,8 +6858,11 @@
       <c r="K133" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L133" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
@@ -6477,8 +6896,11 @@
       <c r="K134" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L134" s="9">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>13</v>
       </c>
@@ -6512,8 +6934,11 @@
       <c r="K135" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L135" s="9">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -6547,8 +6972,11 @@
       <c r="K136" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L136" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -6582,8 +7010,11 @@
       <c r="K137" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L137" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -6617,8 +7048,11 @@
       <c r="K138" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L138" s="9">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -6652,8 +7086,11 @@
       <c r="K139" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L139" s="9">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -6687,8 +7124,11 @@
       <c r="K140" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L140" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -6722,8 +7162,11 @@
       <c r="K141" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L141" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>14</v>
       </c>
@@ -6757,8 +7200,11 @@
       <c r="K142" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L142" s="9">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>14</v>
       </c>
@@ -6792,8 +7238,11 @@
       <c r="K143" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L143" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>14</v>
       </c>
@@ -6827,8 +7276,11 @@
       <c r="K144" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L144" s="9">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>14</v>
       </c>
@@ -6862,8 +7314,11 @@
       <c r="K145" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L145" s="9">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>14</v>
       </c>
@@ -6897,8 +7352,11 @@
       <c r="K146" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L146" s="9">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>14</v>
       </c>
@@ -6932,8 +7390,11 @@
       <c r="K147" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L147" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
@@ -6967,8 +7428,11 @@
       <c r="K148" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L148" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>14</v>
       </c>
@@ -7002,8 +7466,11 @@
       <c r="K149" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L149" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
@@ -7037,8 +7504,11 @@
       <c r="K150" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L150" s="9">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>14</v>
       </c>
@@ -7072,8 +7542,11 @@
       <c r="K151" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L151" s="9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>14</v>
       </c>
@@ -7107,8 +7580,11 @@
       <c r="K152" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L152" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>14</v>
       </c>
@@ -7142,8 +7618,11 @@
       <c r="K153" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L153" s="9">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>14</v>
       </c>
@@ -7177,8 +7656,11 @@
       <c r="K154" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L154" s="9">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>14</v>
       </c>
@@ -7212,8 +7694,11 @@
       <c r="K155" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L155" s="9">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>14</v>
       </c>
@@ -7247,8 +7732,11 @@
       <c r="K156" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L156" s="9">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>14</v>
       </c>
@@ -7282,8 +7770,11 @@
       <c r="K157" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L157" s="9">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>14</v>
       </c>
@@ -7317,8 +7808,11 @@
       <c r="K158" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L158" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
@@ -7352,8 +7846,11 @@
       <c r="K159" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L159" s="9">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>14</v>
       </c>
@@ -7387,8 +7884,11 @@
       <c r="K160" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L160" s="9">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -7422,8 +7922,11 @@
       <c r="K161" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L161" s="9">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>15</v>
       </c>
@@ -7457,8 +7960,11 @@
       <c r="K162" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L162" s="9">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>15</v>
       </c>
@@ -7492,8 +7998,11 @@
       <c r="K163" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L163" s="9">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -7527,8 +8036,11 @@
       <c r="K164" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L164" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -7562,8 +8074,11 @@
       <c r="K165" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L165" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>16</v>
       </c>
@@ -7597,8 +8112,11 @@
       <c r="K166" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L166" s="9">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -7632,8 +8150,11 @@
       <c r="K167" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L167" s="9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -7667,8 +8188,11 @@
       <c r="K168" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L168" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>17</v>
       </c>
@@ -7702,8 +8226,11 @@
       <c r="K169" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L169" s="9">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>17</v>
       </c>
@@ -7737,8 +8264,11 @@
       <c r="K170" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L170" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>17</v>
       </c>
@@ -7772,8 +8302,11 @@
       <c r="K171" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L171" s="9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>17</v>
       </c>
@@ -7807,8 +8340,11 @@
       <c r="K172" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L172" s="9">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>17</v>
       </c>
@@ -7842,8 +8378,11 @@
       <c r="K173" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L173" s="9">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>18</v>
       </c>
@@ -7877,8 +8416,11 @@
       <c r="K174" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L174" s="9">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>18</v>
       </c>
@@ -7912,8 +8454,11 @@
       <c r="K175" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L175" s="9">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>18</v>
       </c>
@@ -7947,8 +8492,11 @@
       <c r="K176" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L176" s="9">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>18</v>
       </c>
@@ -7982,8 +8530,11 @@
       <c r="K177" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L177" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>19</v>
       </c>
@@ -8017,8 +8568,11 @@
       <c r="K178" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L178" s="9">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>19</v>
       </c>
@@ -8052,8 +8606,11 @@
       <c r="K179" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L179" s="9">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>19</v>
       </c>
@@ -8087,8 +8644,11 @@
       <c r="K180" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L180" s="9">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>19</v>
       </c>
@@ -8122,8 +8682,11 @@
       <c r="K181" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L181" s="9">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>20</v>
       </c>
@@ -8157,8 +8720,11 @@
       <c r="K182" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L182" s="9">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>20</v>
       </c>
@@ -8192,8 +8758,11 @@
       <c r="K183" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L183" s="9">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -8227,8 +8796,11 @@
       <c r="K184" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L184" s="9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -8262,8 +8834,11 @@
       <c r="K185" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L185" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -8297,8 +8872,11 @@
       <c r="K186" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L186" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -8332,8 +8910,11 @@
       <c r="K187" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L187" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>23</v>
       </c>
@@ -8367,8 +8948,11 @@
       <c r="K188" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L188" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>23</v>
       </c>
@@ -8402,8 +8986,11 @@
       <c r="K189" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L189" s="9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>23</v>
       </c>
@@ -8437,8 +9024,11 @@
       <c r="K190" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L190" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>23</v>
       </c>
@@ -8472,8 +9062,11 @@
       <c r="K191" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L191" s="9">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>23</v>
       </c>
@@ -8507,8 +9100,11 @@
       <c r="K192" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L192" s="9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>23</v>
       </c>
@@ -8542,8 +9138,11 @@
       <c r="K193" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L193" s="9">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>23</v>
       </c>
@@ -8577,8 +9176,11 @@
       <c r="K194" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L194" s="9">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>23</v>
       </c>
@@ -8612,8 +9214,11 @@
       <c r="K195" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L195" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>23</v>
       </c>
@@ -8647,8 +9252,11 @@
       <c r="K196" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L196" s="9">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>23</v>
       </c>
@@ -8682,8 +9290,11 @@
       <c r="K197" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L197" s="9">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>23</v>
       </c>
@@ -8717,8 +9328,11 @@
       <c r="K198" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L198" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>23</v>
       </c>
@@ -8752,8 +9366,11 @@
       <c r="K199" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L199" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -8787,8 +9404,11 @@
       <c r="K200" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L200" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>23</v>
       </c>
@@ -8822,8 +9442,11 @@
       <c r="K201" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L201" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -8857,8 +9480,11 @@
       <c r="K202" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L202" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -8892,8 +9518,11 @@
       <c r="K203" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L203" s="9">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -8927,8 +9556,11 @@
       <c r="K204" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L204" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -8962,8 +9594,11 @@
       <c r="K205" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L205" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -8997,8 +9632,11 @@
       <c r="K206" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L206" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -9032,8 +9670,11 @@
       <c r="K207" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L207" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -9067,8 +9708,11 @@
       <c r="K208" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L208" s="9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -9102,8 +9746,11 @@
       <c r="K209" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L209" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>21</v>
       </c>
@@ -9137,8 +9784,11 @@
       <c r="K210" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L210" s="9">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>21</v>
       </c>
@@ -9172,8 +9822,11 @@
       <c r="K211" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L211" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>21</v>
       </c>
@@ -9207,8 +9860,11 @@
       <c r="K212" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L212" s="9">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>21</v>
       </c>
@@ -9242,8 +9898,11 @@
       <c r="K213" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L213" s="9">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>21</v>
       </c>
@@ -9277,8 +9936,11 @@
       <c r="K214" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L214" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>21</v>
       </c>
@@ -9312,8 +9974,11 @@
       <c r="K215" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L215" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>21</v>
       </c>
@@ -9347,8 +10012,11 @@
       <c r="K216" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L216" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>21</v>
       </c>
@@ -9382,8 +10050,11 @@
       <c r="K217" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L217" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>21</v>
       </c>
@@ -9417,8 +10088,11 @@
       <c r="K218" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L218" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>21</v>
       </c>
@@ -9452,8 +10126,11 @@
       <c r="K219" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L219" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>21</v>
       </c>
@@ -9487,8 +10164,11 @@
       <c r="K220" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L220" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>21</v>
       </c>
@@ -9522,8 +10202,11 @@
       <c r="K221" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L221" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>21</v>
       </c>
@@ -9557,8 +10240,11 @@
       <c r="K222" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L222" s="9">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>21</v>
       </c>
@@ -9592,8 +10278,11 @@
       <c r="K223" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L223" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>22</v>
       </c>
@@ -9627,8 +10316,11 @@
       <c r="K224" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L224" s="9">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>22</v>
       </c>
@@ -9662,8 +10354,11 @@
       <c r="K225" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L225" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>22</v>
       </c>
@@ -9697,8 +10392,11 @@
       <c r="K226" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L226" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>22</v>
       </c>
@@ -9732,8 +10430,11 @@
       <c r="K227" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L227" s="9">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>22</v>
       </c>
@@ -9767,8 +10468,11 @@
       <c r="K228" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L228" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>22</v>
       </c>
@@ -9802,8 +10506,11 @@
       <c r="K229" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L229" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>22</v>
       </c>
@@ -9837,8 +10544,11 @@
       <c r="K230" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L230" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -9872,8 +10582,11 @@
       <c r="K231" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L231" s="9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>78</v>
       </c>
@@ -9907,8 +10620,11 @@
       <c r="K232" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L232" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>78</v>
       </c>
@@ -9942,8 +10658,11 @@
       <c r="K233" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L233" s="9">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>61</v>
       </c>
@@ -9977,8 +10696,11 @@
       <c r="K234" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L234" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>61</v>
       </c>
@@ -10012,8 +10734,11 @@
       <c r="K235" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L235" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>24</v>
       </c>
@@ -10047,8 +10772,11 @@
       <c r="K236" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L236" s="9">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>24</v>
       </c>
@@ -10082,8 +10810,11 @@
       <c r="K237" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L237" s="9">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>25</v>
       </c>
@@ -10117,8 +10848,11 @@
       <c r="K238" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L238" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>25</v>
       </c>
@@ -10152,8 +10886,11 @@
       <c r="K239" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L239" s="9">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>25</v>
       </c>
@@ -10187,8 +10924,11 @@
       <c r="K240" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L240" s="9">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>25</v>
       </c>
@@ -10222,8 +10962,11 @@
       <c r="K241" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L241" s="9">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>25</v>
       </c>
@@ -10257,8 +11000,11 @@
       <c r="K242" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L242" s="9">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>25</v>
       </c>
@@ -10292,8 +11038,11 @@
       <c r="K243" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L243" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>25</v>
       </c>
@@ -10327,8 +11076,11 @@
       <c r="K244" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L244" s="9">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>25</v>
       </c>
@@ -10362,8 +11114,11 @@
       <c r="K245" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L245" s="9">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -10397,8 +11152,11 @@
       <c r="K246" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L246" s="9">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>25</v>
       </c>
@@ -10432,8 +11190,11 @@
       <c r="K247" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L247" s="9">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>25</v>
       </c>
@@ -10467,8 +11228,11 @@
       <c r="K248" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L248" s="9">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>25</v>
       </c>
@@ -10502,8 +11266,11 @@
       <c r="K249" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L249" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>25</v>
       </c>
@@ -10537,8 +11304,11 @@
       <c r="K250" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L250" s="9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>25</v>
       </c>
@@ -10572,8 +11342,11 @@
       <c r="K251" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L251" s="9">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>25</v>
       </c>
@@ -10607,8 +11380,11 @@
       <c r="K252" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L252" s="9">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>25</v>
       </c>
@@ -10642,8 +11418,11 @@
       <c r="K253" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L253" s="9">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>25</v>
       </c>
@@ -10677,8 +11456,11 @@
       <c r="K254" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L254" s="9">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>25</v>
       </c>
@@ -10712,8 +11494,11 @@
       <c r="K255" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L255" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>25</v>
       </c>
@@ -10747,8 +11532,11 @@
       <c r="K256" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L256" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
@@ -10782,8 +11570,11 @@
       <c r="K257" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L257" s="9">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>26</v>
       </c>
@@ -10817,8 +11608,11 @@
       <c r="K258" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L258" s="9">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>26</v>
       </c>
@@ -10852,8 +11646,11 @@
       <c r="K259" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L259" s="9">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>27</v>
       </c>
@@ -10887,8 +11684,11 @@
       <c r="K260" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L260" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>27</v>
       </c>
@@ -10922,8 +11722,11 @@
       <c r="K261" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L261" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>27</v>
       </c>
@@ -10957,8 +11760,11 @@
       <c r="K262" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L262" s="9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>27</v>
       </c>
@@ -10992,8 +11798,11 @@
       <c r="K263" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L263" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>27</v>
       </c>
@@ -11027,8 +11836,11 @@
       <c r="K264" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L264" s="9">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>27</v>
       </c>
@@ -11062,8 +11874,11 @@
       <c r="K265" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L265" s="9">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>27</v>
       </c>
@@ -11097,8 +11912,11 @@
       <c r="K266" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L266" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>27</v>
       </c>
@@ -11132,8 +11950,11 @@
       <c r="K267" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L267" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>27</v>
       </c>
@@ -11167,8 +11988,11 @@
       <c r="K268" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L268" s="9">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>27</v>
       </c>
@@ -11202,8 +12026,11 @@
       <c r="K269" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L269" s="9">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>27</v>
       </c>
@@ -11237,8 +12064,11 @@
       <c r="K270" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L270" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>27</v>
       </c>
@@ -11272,8 +12102,11 @@
       <c r="K271" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L271" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>28</v>
       </c>
@@ -11307,8 +12140,11 @@
       <c r="K272" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L272" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>28</v>
       </c>
@@ -11342,8 +12178,11 @@
       <c r="K273" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L273" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>29</v>
       </c>
@@ -11377,8 +12216,11 @@
       <c r="K274" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L274" s="9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>29</v>
       </c>
@@ -11412,8 +12254,11 @@
       <c r="K275" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L275" s="9">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>30</v>
       </c>
@@ -11447,8 +12292,11 @@
       <c r="K276" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L276" s="9">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>30</v>
       </c>
@@ -11482,8 +12330,11 @@
       <c r="K277" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L277" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>31</v>
       </c>
@@ -11517,8 +12368,11 @@
       <c r="K278" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L278" s="9">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>31</v>
       </c>
@@ -11552,8 +12406,11 @@
       <c r="K279" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L279" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>79</v>
       </c>
@@ -11587,8 +12444,11 @@
       <c r="K280" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L280" s="9">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>79</v>
       </c>
@@ -11622,8 +12482,11 @@
       <c r="K281" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L281" s="9">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>79</v>
       </c>
@@ -11657,8 +12520,11 @@
       <c r="K282" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L282" s="9">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>79</v>
       </c>
@@ -11692,8 +12558,11 @@
       <c r="K283" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L283" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>79</v>
       </c>
@@ -11727,8 +12596,11 @@
       <c r="K284" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L284" s="9">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>79</v>
       </c>
@@ -11762,8 +12634,11 @@
       <c r="K285" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L285" s="9">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>79</v>
       </c>
@@ -11797,8 +12672,11 @@
       <c r="K286" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L286" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>79</v>
       </c>
@@ -11832,8 +12710,11 @@
       <c r="K287" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L287" s="9">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>32</v>
       </c>
@@ -11867,8 +12748,11 @@
       <c r="K288" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L288" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>32</v>
       </c>
@@ -11902,8 +12786,11 @@
       <c r="K289" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L289" s="9">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>33</v>
       </c>
@@ -11937,8 +12824,11 @@
       <c r="K290" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L290" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>33</v>
       </c>
@@ -11972,8 +12862,11 @@
       <c r="K291" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L291" s="9">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>33</v>
       </c>
@@ -12007,8 +12900,11 @@
       <c r="K292" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L292" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>33</v>
       </c>
@@ -12042,8 +12938,11 @@
       <c r="K293" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L293" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>33</v>
       </c>
@@ -12077,8 +12976,11 @@
       <c r="K294" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L294" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>33</v>
       </c>
@@ -12112,8 +13014,11 @@
       <c r="K295" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L295" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>80</v>
       </c>
@@ -12147,8 +13052,11 @@
       <c r="K296" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L296" s="9">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>80</v>
       </c>
@@ -12182,8 +13090,11 @@
       <c r="K297" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L297" s="9">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>34</v>
       </c>
@@ -12217,8 +13128,11 @@
       <c r="K298" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L298" s="9">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>34</v>
       </c>
@@ -12252,8 +13166,11 @@
       <c r="K299" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L299" s="9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>34</v>
       </c>
@@ -12287,8 +13204,11 @@
       <c r="K300" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L300" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>34</v>
       </c>
@@ -12322,8 +13242,11 @@
       <c r="K301" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L301" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>34</v>
       </c>
@@ -12357,8 +13280,11 @@
       <c r="K302" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L302" s="9">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>34</v>
       </c>
@@ -12392,8 +13318,11 @@
       <c r="K303" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L303" s="9">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>34</v>
       </c>
@@ -12427,8 +13356,11 @@
       <c r="K304" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L304" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>34</v>
       </c>
@@ -12462,8 +13394,11 @@
       <c r="K305" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L305" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>35</v>
       </c>
@@ -12497,8 +13432,11 @@
       <c r="K306" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L306" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>35</v>
       </c>
@@ -12532,8 +13470,11 @@
       <c r="K307" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L307" s="9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>35</v>
       </c>
@@ -12567,8 +13508,11 @@
       <c r="K308" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L308" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>35</v>
       </c>
@@ -12602,8 +13546,11 @@
       <c r="K309" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L309" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>36</v>
       </c>
@@ -12637,8 +13584,11 @@
       <c r="K310" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L310" s="9">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>36</v>
       </c>
@@ -12672,8 +13622,11 @@
       <c r="K311" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L311" s="9">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>36</v>
       </c>
@@ -12707,8 +13660,11 @@
       <c r="K312" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L312" s="9">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>36</v>
       </c>
@@ -12742,8 +13698,11 @@
       <c r="K313" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L313" s="9">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>37</v>
       </c>
@@ -12777,8 +13736,11 @@
       <c r="K314" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L314" s="9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>37</v>
       </c>
@@ -12812,8 +13774,11 @@
       <c r="K315" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L315" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>37</v>
       </c>
@@ -12847,8 +13812,11 @@
       <c r="K316" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L316" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>37</v>
       </c>
@@ -12882,8 +13850,11 @@
       <c r="K317" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L317" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>37</v>
       </c>
@@ -12917,8 +13888,11 @@
       <c r="K318" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L318" s="9">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>37</v>
       </c>
@@ -12952,8 +13926,11 @@
       <c r="K319" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L319" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>37</v>
       </c>
@@ -12987,8 +13964,11 @@
       <c r="K320" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L320" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>37</v>
       </c>
@@ -13022,8 +14002,11 @@
       <c r="K321" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L321" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>37</v>
       </c>
@@ -13057,8 +14040,11 @@
       <c r="K322" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L322" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>37</v>
       </c>
@@ -13092,8 +14078,11 @@
       <c r="K323" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L323" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>37</v>
       </c>
@@ -13127,8 +14116,11 @@
       <c r="K324" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L324" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
@@ -13162,8 +14154,11 @@
       <c r="K325" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L325" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>37</v>
       </c>
@@ -13197,8 +14192,11 @@
       <c r="K326" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L326" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>37</v>
       </c>
@@ -13232,8 +14230,11 @@
       <c r="K327" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L327" s="9">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>37</v>
       </c>
@@ -13267,8 +14268,11 @@
       <c r="K328" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L328" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>37</v>
       </c>
@@ -13302,8 +14306,11 @@
       <c r="K329" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L329" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>38</v>
       </c>
@@ -13337,8 +14344,11 @@
       <c r="K330" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L330" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>38</v>
       </c>
@@ -13372,8 +14382,11 @@
       <c r="K331" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L331" s="9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>38</v>
       </c>
@@ -13407,8 +14420,11 @@
       <c r="K332" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L332" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>38</v>
       </c>
@@ -13442,8 +14458,11 @@
       <c r="K333" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L333" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>39</v>
       </c>
@@ -13477,8 +14496,11 @@
       <c r="K334" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L334" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>39</v>
       </c>
@@ -13512,8 +14534,11 @@
       <c r="K335" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L335" s="9">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>39</v>
       </c>
@@ -13547,8 +14572,11 @@
       <c r="K336" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L336" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>39</v>
       </c>
@@ -13582,8 +14610,11 @@
       <c r="K337" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L337" s="9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>39</v>
       </c>
@@ -13617,8 +14648,11 @@
       <c r="K338" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L338" s="9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>39</v>
       </c>
@@ -13652,8 +14686,11 @@
       <c r="K339" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L339" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>39</v>
       </c>
@@ -13687,8 +14724,11 @@
       <c r="K340" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L340" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>39</v>
       </c>
@@ -13722,8 +14762,11 @@
       <c r="K341" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L341" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>39</v>
       </c>
@@ -13757,8 +14800,11 @@
       <c r="K342" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L342" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>39</v>
       </c>
@@ -13792,8 +14838,11 @@
       <c r="K343" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L343" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>39</v>
       </c>
@@ -13827,8 +14876,11 @@
       <c r="K344" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L344" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>39</v>
       </c>
@@ -13862,8 +14914,11 @@
       <c r="K345" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L345" s="9">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>39</v>
       </c>
@@ -13897,8 +14952,11 @@
       <c r="K346" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L346" s="9">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>39</v>
       </c>
@@ -13932,8 +14990,11 @@
       <c r="K347" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L347" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>39</v>
       </c>
@@ -13967,8 +15028,11 @@
       <c r="K348" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L348" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>39</v>
       </c>
@@ -14002,8 +15066,11 @@
       <c r="K349" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L349" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>40</v>
       </c>
@@ -14037,8 +15104,11 @@
       <c r="K350" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L350" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>40</v>
       </c>
@@ -14072,8 +15142,11 @@
       <c r="K351" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L351" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>40</v>
       </c>
@@ -14107,8 +15180,11 @@
       <c r="K352" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L352" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>40</v>
       </c>
@@ -14142,8 +15218,11 @@
       <c r="K353" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L353" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>41</v>
       </c>
@@ -14177,8 +15256,11 @@
       <c r="K354" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L354" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>41</v>
       </c>
@@ -14212,8 +15294,11 @@
       <c r="K355" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L355" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>41</v>
       </c>
@@ -14247,8 +15332,11 @@
       <c r="K356" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L356" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>41</v>
       </c>
@@ -14282,8 +15370,11 @@
       <c r="K357" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L357" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>41</v>
       </c>
@@ -14317,8 +15408,11 @@
       <c r="K358" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L358" s="9">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>41</v>
       </c>
@@ -14352,8 +15446,11 @@
       <c r="K359" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L359" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>41</v>
       </c>
@@ -14387,8 +15484,11 @@
       <c r="K360" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L360" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>41</v>
       </c>
@@ -14422,8 +15522,11 @@
       <c r="K361" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L361" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>41</v>
       </c>
@@ -14457,8 +15560,11 @@
       <c r="K362" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L362" s="9">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>41</v>
       </c>
@@ -14492,8 +15598,11 @@
       <c r="K363" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L363" s="9">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>41</v>
       </c>
@@ -14527,8 +15636,11 @@
       <c r="K364" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L364" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>41</v>
       </c>
@@ -14562,8 +15674,11 @@
       <c r="K365" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L365" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>42</v>
       </c>
@@ -14597,8 +15712,11 @@
       <c r="K366" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L366" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>42</v>
       </c>
@@ -14632,8 +15750,11 @@
       <c r="K367" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L367" s="9">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>42</v>
       </c>
@@ -14667,8 +15788,11 @@
       <c r="K368" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L368" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>42</v>
       </c>
@@ -14702,8 +15826,11 @@
       <c r="K369" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L369" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>43</v>
       </c>
@@ -14737,8 +15864,11 @@
       <c r="K370" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L370" s="9">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>43</v>
       </c>
@@ -14772,8 +15902,11 @@
       <c r="K371" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L371" s="9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>43</v>
       </c>
@@ -14807,8 +15940,11 @@
       <c r="K372" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L372" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>43</v>
       </c>
@@ -14842,8 +15978,11 @@
       <c r="K373" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L373" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>43</v>
       </c>
@@ -14877,8 +16016,11 @@
       <c r="K374" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L374" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>43</v>
       </c>
@@ -14912,8 +16054,11 @@
       <c r="K375" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L375" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>46</v>
       </c>
@@ -14947,8 +16092,11 @@
       <c r="K376" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L376" s="9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>46</v>
       </c>
@@ -14982,8 +16130,11 @@
       <c r="K377" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L377" s="9">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>45</v>
       </c>
@@ -15017,8 +16168,11 @@
       <c r="K378" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L378" s="9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>45</v>
       </c>
@@ -15052,8 +16206,11 @@
       <c r="K379" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L379" s="9">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>45</v>
       </c>
@@ -15087,8 +16244,11 @@
       <c r="K380" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L380" s="9">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>45</v>
       </c>
@@ -15122,8 +16282,11 @@
       <c r="K381" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L381" s="9">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>44</v>
       </c>
@@ -15157,8 +16320,11 @@
       <c r="K382" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L382" s="9">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>44</v>
       </c>
@@ -15192,8 +16358,11 @@
       <c r="K383" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L383" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>44</v>
       </c>
@@ -15227,8 +16396,11 @@
       <c r="K384" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L384" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>44</v>
       </c>
@@ -15262,8 +16434,11 @@
       <c r="K385" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L385" s="9">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>44</v>
       </c>
@@ -15297,8 +16472,11 @@
       <c r="K386" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L386" s="9">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>44</v>
       </c>
@@ -15332,8 +16510,11 @@
       <c r="K387" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L387" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>47</v>
       </c>
@@ -15367,8 +16548,11 @@
       <c r="K388" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L388" s="9">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>47</v>
       </c>
@@ -15402,8 +16586,11 @@
       <c r="K389" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L389" s="9">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>48</v>
       </c>
@@ -15437,8 +16624,11 @@
       <c r="K390" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L390" s="9">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>48</v>
       </c>
@@ -15472,8 +16662,11 @@
       <c r="K391" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L391" s="9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>48</v>
       </c>
@@ -15507,8 +16700,11 @@
       <c r="K392" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L392" s="9">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>48</v>
       </c>
@@ -15542,8 +16738,11 @@
       <c r="K393" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L393" s="9">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>48</v>
       </c>
@@ -15577,8 +16776,11 @@
       <c r="K394" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L394" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>48</v>
       </c>
@@ -15612,8 +16814,11 @@
       <c r="K395" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L395" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>48</v>
       </c>
@@ -15647,8 +16852,11 @@
       <c r="K396" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L396" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>48</v>
       </c>
@@ -15682,8 +16890,11 @@
       <c r="K397" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L397" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>48</v>
       </c>
@@ -15717,8 +16928,11 @@
       <c r="K398" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L398" s="9">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>48</v>
       </c>
@@ -15752,8 +16966,11 @@
       <c r="K399" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L399" s="9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>48</v>
       </c>
@@ -15787,8 +17004,11 @@
       <c r="K400" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L400" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>48</v>
       </c>
@@ -15822,8 +17042,11 @@
       <c r="K401" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L401" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>48</v>
       </c>
@@ -15857,8 +17080,11 @@
       <c r="K402" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L402" s="9">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>48</v>
       </c>
@@ -15892,8 +17118,11 @@
       <c r="K403" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L403" s="9">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>48</v>
       </c>
@@ -15927,8 +17156,11 @@
       <c r="K404" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L404" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>48</v>
       </c>
@@ -15962,8 +17194,11 @@
       <c r="K405" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L405" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>48</v>
       </c>
@@ -15997,8 +17232,11 @@
       <c r="K406" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L406" s="9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>48</v>
       </c>
@@ -16032,8 +17270,11 @@
       <c r="K407" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L407" s="9">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>48</v>
       </c>
@@ -16067,8 +17308,11 @@
       <c r="K408" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L408" s="9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>48</v>
       </c>
@@ -16102,8 +17346,11 @@
       <c r="K409" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L409" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>49</v>
       </c>
@@ -16137,8 +17384,11 @@
       <c r="K410" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L410" s="9">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>49</v>
       </c>
@@ -16172,8 +17422,11 @@
       <c r="K411" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L411" s="9">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>49</v>
       </c>
@@ -16207,8 +17460,11 @@
       <c r="K412" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L412" s="9">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>49</v>
       </c>
@@ -16242,8 +17498,11 @@
       <c r="K413" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L413" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>49</v>
       </c>
@@ -16277,8 +17536,11 @@
       <c r="K414" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L414" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>49</v>
       </c>
@@ -16312,8 +17574,11 @@
       <c r="K415" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L415" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>49</v>
       </c>
@@ -16347,8 +17612,11 @@
       <c r="K416" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L416" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>49</v>
       </c>
@@ -16382,8 +17650,11 @@
       <c r="K417" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L417" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>49</v>
       </c>
@@ -16417,8 +17688,11 @@
       <c r="K418" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L418" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>49</v>
       </c>
@@ -16452,8 +17726,11 @@
       <c r="K419" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L419" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>49</v>
       </c>
@@ -16487,8 +17764,11 @@
       <c r="K420" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L420" s="9">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>49</v>
       </c>
@@ -16522,8 +17802,11 @@
       <c r="K421" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L421" s="9">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>49</v>
       </c>
@@ -16557,8 +17840,11 @@
       <c r="K422" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L422" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>49</v>
       </c>
@@ -16592,8 +17878,11 @@
       <c r="K423" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L423" s="9">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>49</v>
       </c>
@@ -16627,8 +17916,11 @@
       <c r="K424" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L424" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>49</v>
       </c>
@@ -16662,8 +17954,11 @@
       <c r="K425" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L425" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>49</v>
       </c>
@@ -16697,8 +17992,11 @@
       <c r="K426" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L426" s="9">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>49</v>
       </c>
@@ -16732,8 +18030,11 @@
       <c r="K427" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L427" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>49</v>
       </c>
@@ -16767,8 +18068,11 @@
       <c r="K428" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L428" s="9">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>49</v>
       </c>
@@ -16802,8 +18106,11 @@
       <c r="K429" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L429" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>50</v>
       </c>
@@ -16837,8 +18144,11 @@
       <c r="K430" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L430" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>50</v>
       </c>
@@ -16872,8 +18182,11 @@
       <c r="K431" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L431" s="9">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>51</v>
       </c>
@@ -16907,8 +18220,11 @@
       <c r="K432" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L432" s="9">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>51</v>
       </c>
@@ -16942,8 +18258,11 @@
       <c r="K433" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L433" s="9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>81</v>
       </c>
@@ -16977,8 +18296,11 @@
       <c r="K434" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L434" s="9">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>81</v>
       </c>
@@ -17012,8 +18334,11 @@
       <c r="K435" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L435" s="9">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>52</v>
       </c>
@@ -17047,8 +18372,11 @@
       <c r="K436" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L436" s="9">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>52</v>
       </c>
@@ -17082,8 +18410,11 @@
       <c r="K437" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L437" s="9">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>53</v>
       </c>
@@ -17117,8 +18448,11 @@
       <c r="K438" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L438" s="9">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>53</v>
       </c>
@@ -17152,8 +18486,11 @@
       <c r="K439" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L439" s="9">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>54</v>
       </c>
@@ -17187,8 +18524,11 @@
       <c r="K440" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L440" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>54</v>
       </c>
@@ -17222,8 +18562,11 @@
       <c r="K441" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L441" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>54</v>
       </c>
@@ -17257,8 +18600,11 @@
       <c r="K442" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L442" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>54</v>
       </c>
@@ -17292,8 +18638,11 @@
       <c r="K443" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L443" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>54</v>
       </c>
@@ -17327,8 +18676,11 @@
       <c r="K444" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L444" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>54</v>
       </c>
@@ -17362,8 +18714,11 @@
       <c r="K445" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L445" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>54</v>
       </c>
@@ -17397,8 +18752,11 @@
       <c r="K446" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L446" s="9">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>54</v>
       </c>
@@ -17432,8 +18790,11 @@
       <c r="K447" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L447" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>54</v>
       </c>
@@ -17467,8 +18828,11 @@
       <c r="K448" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L448" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>54</v>
       </c>
@@ -17502,8 +18866,11 @@
       <c r="K449" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L449" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>55</v>
       </c>
@@ -17537,8 +18904,11 @@
       <c r="K450" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L450" s="9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>55</v>
       </c>
@@ -17572,8 +18942,11 @@
       <c r="K451" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L451" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>55</v>
       </c>
@@ -17607,8 +18980,11 @@
       <c r="K452" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L452" s="9">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>55</v>
       </c>
@@ -17642,8 +19018,11 @@
       <c r="K453" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L453" s="9">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>55</v>
       </c>
@@ -17677,8 +19056,11 @@
       <c r="K454" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L454" s="9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>55</v>
       </c>
@@ -17712,8 +19094,11 @@
       <c r="K455" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L455" s="9">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>55</v>
       </c>
@@ -17747,8 +19132,11 @@
       <c r="K456" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L456" s="9">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>55</v>
       </c>
@@ -17782,8 +19170,11 @@
       <c r="K457" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L457" s="9">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>55</v>
       </c>
@@ -17817,8 +19208,11 @@
       <c r="K458" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L458" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>55</v>
       </c>
@@ -17852,8 +19246,11 @@
       <c r="K459" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L459" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>55</v>
       </c>
@@ -17887,8 +19284,11 @@
       <c r="K460" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L460" s="9">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>55</v>
       </c>
@@ -17922,8 +19322,11 @@
       <c r="K461" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L461" s="9">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>55</v>
       </c>
@@ -17957,8 +19360,11 @@
       <c r="K462" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L462" s="9">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>55</v>
       </c>
@@ -17992,8 +19398,11 @@
       <c r="K463" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L463" s="9">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>55</v>
       </c>
@@ -18027,8 +19436,11 @@
       <c r="K464" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L464" s="9">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>55</v>
       </c>
@@ -18062,8 +19474,11 @@
       <c r="K465" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L465" s="9">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>55</v>
       </c>
@@ -18097,8 +19512,11 @@
       <c r="K466" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L466" s="9">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>55</v>
       </c>
@@ -18132,8 +19550,11 @@
       <c r="K467" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L467" s="9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>56</v>
       </c>
@@ -18167,8 +19588,11 @@
       <c r="K468" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L468" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>56</v>
       </c>
@@ -18202,8 +19626,11 @@
       <c r="K469" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L469" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>56</v>
       </c>
@@ -18237,8 +19664,11 @@
       <c r="K470" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L470" s="9">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -18272,8 +19702,11 @@
       <c r="K471" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L471" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -18307,8 +19740,11 @@
       <c r="K472" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L472" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -18342,8 +19778,11 @@
       <c r="K473" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L473" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>56</v>
       </c>
@@ -18377,8 +19816,11 @@
       <c r="K474" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L474" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>56</v>
       </c>
@@ -18412,8 +19854,11 @@
       <c r="K475" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L475" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -18447,8 +19892,11 @@
       <c r="K476" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L476" s="9">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>56</v>
       </c>
@@ -18482,8 +19930,11 @@
       <c r="K477" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L477" s="9">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>56</v>
       </c>
@@ -18517,8 +19968,11 @@
       <c r="K478" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L478" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -18552,8 +20006,11 @@
       <c r="K479" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L479" s="9">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -18587,8 +20044,11 @@
       <c r="K480" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L480" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -18622,8 +20082,11 @@
       <c r="K481" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L481" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -18657,8 +20120,11 @@
       <c r="K482" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L482" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>56</v>
       </c>
@@ -18692,8 +20158,11 @@
       <c r="K483" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L483" s="9">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>56</v>
       </c>
@@ -18727,8 +20196,11 @@
       <c r="K484" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L484" s="9">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -18762,8 +20234,11 @@
       <c r="K485" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L485" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>57</v>
       </c>
@@ -18797,8 +20272,11 @@
       <c r="K486" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L486" s="9">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>57</v>
       </c>
@@ -18832,8 +20310,11 @@
       <c r="K487" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L487" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>57</v>
       </c>
@@ -18867,8 +20348,11 @@
       <c r="K488" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L488" s="9">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>57</v>
       </c>
@@ -18902,8 +20386,11 @@
       <c r="K489" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L489" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>57</v>
       </c>
@@ -18937,8 +20424,11 @@
       <c r="K490" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L490" s="9">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>57</v>
       </c>
@@ -18972,8 +20462,11 @@
       <c r="K491" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L491" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>58</v>
       </c>
@@ -19007,8 +20500,11 @@
       <c r="K492" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L492" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>58</v>
       </c>
@@ -19042,8 +20538,11 @@
       <c r="K493" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L493" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>58</v>
       </c>
@@ -19077,8 +20576,11 @@
       <c r="K494" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L494" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>58</v>
       </c>
@@ -19112,8 +20614,11 @@
       <c r="K495" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L495" s="9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>58</v>
       </c>
@@ -19147,8 +20652,11 @@
       <c r="K496" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L496" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>58</v>
       </c>
@@ -19182,8 +20690,11 @@
       <c r="K497" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L497" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>59</v>
       </c>
@@ -19217,8 +20728,11 @@
       <c r="K498" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L498" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>59</v>
       </c>
@@ -19252,8 +20766,11 @@
       <c r="K499" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L499" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>59</v>
       </c>
@@ -19287,8 +20804,11 @@
       <c r="K500" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L500" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>59</v>
       </c>
@@ -19322,8 +20842,11 @@
       <c r="K501" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L501" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>59</v>
       </c>
@@ -19357,8 +20880,11 @@
       <c r="K502" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L502" s="9">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>59</v>
       </c>
@@ -19392,8 +20918,11 @@
       <c r="K503" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L503" s="9">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>59</v>
       </c>
@@ -19427,8 +20956,11 @@
       <c r="K504" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L504" s="9">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>59</v>
       </c>
@@ -19462,8 +20994,11 @@
       <c r="K505" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L505" s="9">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>59</v>
       </c>
@@ -19497,8 +21032,11 @@
       <c r="K506" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L506" s="9">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>59</v>
       </c>
@@ -19532,8 +21070,11 @@
       <c r="K507" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L507" s="9">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>59</v>
       </c>
@@ -19567,8 +21108,11 @@
       <c r="K508" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L508" s="9">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>59</v>
       </c>
@@ -19602,8 +21146,11 @@
       <c r="K509" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L509" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>59</v>
       </c>
@@ -19637,8 +21184,11 @@
       <c r="K510" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L510" s="9">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>59</v>
       </c>
@@ -19672,8 +21222,11 @@
       <c r="K511" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L511" s="9">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>59</v>
       </c>
@@ -19707,8 +21260,11 @@
       <c r="K512" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L512" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>59</v>
       </c>
@@ -19742,8 +21298,11 @@
       <c r="K513" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L513" s="9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>59</v>
       </c>
@@ -19777,8 +21336,11 @@
       <c r="K514" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L514" s="9">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>59</v>
       </c>
@@ -19812,6 +21374,12 @@
       <c r="K515" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="L515" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L516" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A73">
